--- a/src/main/resources/files/ImportFile.xlsx
+++ b/src/main/resources/files/ImportFile.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kagami\Coding\Learning\Java\Java-Employee-Management\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9084452D-D077-4CBD-91CC-AC370146FF08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F14691-6AA8-4218-B683-A7ECDCBC6779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1848" yWindow="1848" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2196" yWindow="2196" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Assignment Sheet" sheetId="2" r:id="rId2"/>
+    <sheet name="Criticism Employee Sheet" sheetId="3" r:id="rId3"/>
+    <sheet name="Reward Employee Sheet" sheetId="4" r:id="rId4"/>
+    <sheet name="Account Sheet" sheetId="5" r:id="rId5"/>
+    <sheet name="Department Sheet" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="99">
   <si>
     <t xml:space="preserve">Nam </t>
   </si>
@@ -178,13 +183,157 @@
   </si>
   <si>
     <t>EM045</t>
+  </si>
+  <si>
+    <t>EM002</t>
+  </si>
+  <si>
+    <t>PJ002</t>
+  </si>
+  <si>
+    <t>EM004</t>
+  </si>
+  <si>
+    <t>PJ001</t>
+  </si>
+  <si>
+    <t>EM005</t>
+  </si>
+  <si>
+    <t>EM006</t>
+  </si>
+  <si>
+    <t>EM007</t>
+  </si>
+  <si>
+    <t>EM008</t>
+  </si>
+  <si>
+    <t>EM013</t>
+  </si>
+  <si>
+    <t>EM015</t>
+  </si>
+  <si>
+    <t>EM021</t>
+  </si>
+  <si>
+    <t>EM011</t>
+  </si>
+  <si>
+    <t>Vắng</t>
+  </si>
+  <si>
+    <t>EM012</t>
+  </si>
+  <si>
+    <t>Trang phục thiếu nghiêm túc</t>
+  </si>
+  <si>
+    <t>EM014</t>
+  </si>
+  <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>2024-06-25</t>
+  </si>
+  <si>
+    <t>2024-06-26</t>
+  </si>
+  <si>
+    <t>2024-06-27</t>
+  </si>
+  <si>
+    <t>2024-06-28</t>
+  </si>
+  <si>
+    <t>Hoàn thành deadline từ 1 đến 2 ngày</t>
+  </si>
+  <si>
+    <t>EM009</t>
+  </si>
+  <si>
+    <t>EM010</t>
+  </si>
+  <si>
+    <t>EM034</t>
+  </si>
+  <si>
+    <t>Tai Dinh</t>
+  </si>
+  <si>
+    <t>taidinh@example.com</t>
+  </si>
+  <si>
+    <t>test-avatar3.png</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>Tai Huy</t>
+  </si>
+  <si>
+    <t>Tai Xiu</t>
+  </si>
+  <si>
+    <t>Tai Loc</t>
+  </si>
+  <si>
+    <t>Tai Ba</t>
+  </si>
+  <si>
+    <t>taihuy@example.com</t>
+  </si>
+  <si>
+    <t>taixiu@example.com</t>
+  </si>
+  <si>
+    <t>tailoc@example.com</t>
+  </si>
+  <si>
+    <t>taiba@example.com</t>
+  </si>
+  <si>
+    <t>EM046</t>
+  </si>
+  <si>
+    <t>DP009</t>
+  </si>
+  <si>
+    <t>DP010</t>
+  </si>
+  <si>
+    <t>DP011</t>
+  </si>
+  <si>
+    <t>DP012</t>
+  </si>
+  <si>
+    <t>DP013</t>
+  </si>
+  <si>
+    <t>Phòng A</t>
+  </si>
+  <si>
+    <t>Phòng B</t>
+  </si>
+  <si>
+    <t>Phòng C</t>
+  </si>
+  <si>
+    <t>Phòng D</t>
+  </si>
+  <si>
+    <t>Phòng E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +343,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -216,13 +373,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -503,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,7 +682,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -562,7 +726,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>38</v>
@@ -606,7 +770,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
@@ -650,7 +814,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
         <v>40</v>
@@ -694,7 +858,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
@@ -738,7 +902,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
         <v>42</v>
@@ -782,7 +946,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -826,7 +990,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
@@ -870,7 +1034,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -914,7 +1078,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>46</v>
@@ -958,7 +1122,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
         <v>48</v>
@@ -998,6 +1162,481 @@
       </c>
       <c r="N11" t="s">
         <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6131A61-4D73-47FD-B309-5D7C8F0C4C49}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57AB5AD-7468-497F-82EC-4659F4C5950E}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA364B2F-03BD-4D8C-8290-C07A1561DC18}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F35C5FB4-5C54-4BF3-B01D-D01A1B569D23}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="26.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1">
+        <v>123456</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>123457</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>123458</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>123459</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5">
+        <v>123460</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" xr:uid="{DC1BA647-B5A8-4B93-A692-28729A5B2E96}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{DD63796C-AE17-4008-B224-B334FE7E6D87}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{2F07892A-088A-4A9D-A213-F529E4E20CF9}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{F8D89C13-7D32-4AC9-92E4-AA06BD95F7FC}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{EF97F3A1-EC0C-45B4-B8C7-4D4D972CD7B7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB6D5D27-FCB3-4CDA-8E26-59D071C4FD6F}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
